--- a/src/integrationTest/resources/data/non-strategic/ast-daily-hearing-list/astDailyHearingList.xlsx
+++ b/src/integrationTest/resources/data/non-strategic/ast-daily-hearing-list/astDailyHearingList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian.kwa/IdeaProjects/pip-data-management/src/integrationTest/resources/data/non-strategic/ast-daily-list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian.kwa/IdeaProjects/pip-data-management/src/integrationTest/resources/data/non-strategic/ast-daily-hearing-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AC70BD-8D64-ED45-A41B-DF79D3880F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00711E-5286-CD4A-8E72-544AAC434401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="3820" windowWidth="27640" windowHeight="16940" xr2:uid="{0C1F814A-B1E5-C24D-AA62-DAE35072E02F}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Appellant A</t>
   </si>
   <si>
-    <t>Appeallant B</t>
-  </si>
-  <si>
     <t>Case type A</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Hearing type</t>
+  </si>
+  <si>
+    <t>Appellant B</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -503,36 +503,36 @@
         <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>12346</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
